--- a/report/reliability/comb/Instituto de Ciências Sociais - ICS-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Ciências Sociais - ICS-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="481">
+  <fonts count="480">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -983,11 +986,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3137,7 +3135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="803">
+  <cellXfs count="802">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3400,6 +3398,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3427,14 +3426,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,6 +3441,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3458,14 +3457,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,6 +3471,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3488,20 +3487,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3517,20 +3516,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3558,14 +3557,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,6 +3572,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3589,14 +3588,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,6 +3602,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3619,20 +3618,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3648,19 +3647,19 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3688,14 +3687,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3704,6 +3702,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3719,14 +3718,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3734,6 +3732,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3749,20 +3748,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3778,19 +3777,19 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3818,14 +3817,13 @@
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3834,6 +3832,7 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3849,14 +3848,13 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3864,6 +3862,7 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3879,20 +3878,20 @@
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3908,19 +3907,19 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3948,14 +3947,13 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3964,6 +3962,7 @@
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3979,14 +3978,13 @@
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3994,6 +3992,7 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4009,20 +4008,20 @@
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4038,21 +4037,19 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4128,31 +4125,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8041018303852632</v>
+        <v>0.8012997243009058</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8008585817160582</v>
+        <v>0.8237884542293835</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9191127500626017</v>
+        <v>0.9326383766439192</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.25100912876556203</v>
+        <v>0.2644977550296962</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.0215570854987615</v>
+        <v>4.674997036242738</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.044815911663639775</v>
+        <v>0.04296837432840025</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.563063063063063</v>
+        <v>1.9563409563409564</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8490202699300444</v>
+        <v>0.7509670601897177</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.25355881917011536</v>
+        <v>0.22696919389887343</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4199,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7734514805905055</v>
+        <v>0.8001670728281635</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7634786217560617</v>
+        <v>0.8138989623825811</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8861105456761957</v>
+        <v>0.9220130961423835</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22687373555288062</v>
+        <v>0.267105088018368</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.2279476275021604</v>
+        <v>4.3734251716305375</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.051407019608167716</v>
+        <v>0.04421859189333528</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.048650372569033956</v>
+        <v>0.06670594304420233</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.2345191890021521</v>
+        <v>0.2360971405694378</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4228,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7969848092129008</v>
+        <v>0.7687749670569044</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7920520163117925</v>
+        <v>0.7913276440865086</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.900114766837603</v>
+        <v>0.9122474133471355</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2572031830913796</v>
+        <v>0.24013128148666932</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.8088949085429786</v>
+        <v>3.792201610138369</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.046235284939610245</v>
+        <v>0.04936075764966754</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05259937809745405</v>
+        <v>0.0675758401874872</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2784884325907004</v>
+        <v>0.21641200720204384</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4257,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.793576325082693</v>
+        <v>0.7935990575299431</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.788448678973703</v>
+        <v>0.8119732698046901</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8865633260205926</v>
+        <v>0.922305690447676</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2530718458764463</v>
+        <v>0.26463346123192416</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.7269853723848607</v>
+        <v>4.318392757036541</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.0474325298330352</v>
+        <v>0.04386419089788707</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.05288825614301509</v>
+        <v>0.07162751954979057</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2528333499550437</v>
+        <v>0.22892759835538093</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4286,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7965437264824187</v>
+        <v>0.7878252980259158</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.793055307009938</v>
+        <v>0.8010697533916911</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8930845370847508</v>
+        <v>0.9161909538861328</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2583707505363563</v>
+        <v>0.25125824416858683</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.8322089614930213</v>
+        <v>4.0268876505692335</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.04669683292626004</v>
+        <v>0.04681349692413288</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05270654655830364</v>
+        <v>0.06747387669498561</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.26572858696920126</v>
+        <v>0.22696919389887343</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4315,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7656685001687882</v>
+        <v>0.7635644513693294</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7712168117433509</v>
+        <v>0.8001648664839776</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.886005230907666</v>
+        <v>0.9186231111975051</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2345669849582871</v>
+        <v>0.2501933124666031</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.3709505388927417</v>
+        <v>4.004125062522214</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.05530213953965277</v>
+        <v>0.052720859494579254</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05108960509125566</v>
+        <v>0.06718859616888483</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2379717585300132</v>
+        <v>0.2234750424546678</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4344,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.767675882724476</v>
+        <v>0.767802085312705</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7711915199744539</v>
+        <v>0.8002624042444629</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8852762679736637</v>
+        <v>0.9151843654047608</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2345412502483323</v>
+        <v>0.2503077825983744</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.3704673877836675</v>
+        <v>4.006568724417413</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.05507988833984046</v>
+        <v>0.05186138812452292</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.050455229970550686</v>
+        <v>0.06647422036382153</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.24755345894633138</v>
+        <v>0.2234750424546678</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4373,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.808391543549484</v>
+        <v>0.804453731101058</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.807202025148106</v>
+        <v>0.8316582717866623</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9216161402264313</v>
+        <v>0.9310747861957454</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.27568565853517696</v>
+        <v>0.29162992692203343</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.186776472980032</v>
+        <v>4.940297813342579</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.043725361738831424</v>
+        <v>0.043266495097231364</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.055634594456739905</v>
+        <v>0.0719064783338073</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2784884325907004</v>
+        <v>0.2509188736657592</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4402,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8235185872226757</v>
+        <v>0.802411589025037</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8236615649516138</v>
+        <v>0.8240549367871306</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9286497848482793</v>
+        <v>0.9330121318500375</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.29806261470916723</v>
+        <v>0.2807304439721348</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.670913432602517</v>
+        <v>4.683592263058481</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04111400308646455</v>
+        <v>0.0417443111030578</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04471818423539204</v>
+        <v>0.07773219719973565</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.29397646599427685</v>
+        <v>0.2427626087381723</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4431,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7857518931947555</v>
+        <v>0.8193055783811635</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7841813918220188</v>
+        <v>0.8395860763664523</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9072076168229288</v>
+        <v>0.9371192336327845</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24830119933277947</v>
+        <v>0.30369684639229716</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.6335207535733924</v>
+        <v>5.233872829421076</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.04940253961652353</v>
+        <v>0.03889204050035066</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.057155429403792625</v>
+        <v>0.06581124162843129</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2528333499550437</v>
+        <v>0.2509188736657592</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4460,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7854153690766771</v>
+        <v>0.7790492228694476</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7800583105349935</v>
+        <v>0.8089124339347642</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.91000825162652</v>
+        <v>0.9316487720439898</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24381264968606467</v>
+        <v>0.26077434670001914</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.54665962797882</v>
+        <v>4.233202874427776</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.04891241202484111</v>
+        <v>0.047994012925138066</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.058666579655195596</v>
+        <v>0.08055455433265989</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.24755345894633138</v>
+        <v>0.21641200720204384</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4489,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7842162217870762</v>
+        <v>0.7802478970606105</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7767736209809257</v>
+        <v>0.8071100147007652</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9006922012005171</v>
+        <v>0.9294914064603591</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.24031875843124986</v>
+        <v>0.25854079118357975</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.479757295684804</v>
+        <v>4.184302328856921</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.04856083648819129</v>
+        <v>0.04710161441609717</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.051228342161762544</v>
+        <v>0.08210038008953727</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2528333499550437</v>
+        <v>0.21641200720204384</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4518,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7841523091038842</v>
+        <v>0.7811275160883983</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7777037639977862</v>
+        <v>0.808401426810184</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9048436165096355</v>
+        <v>0.9218853796701144</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.241300914228624</v>
+        <v>0.2601382126581753</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.498501719975323</v>
+        <v>4.219245547352294</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.04898245642209794</v>
+        <v>0.04628853758949482</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.05129867416611321</v>
+        <v>0.07469339001706778</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2379717585300132</v>
+        <v>0.2234750424546678</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.780508987774862</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.8077503825725438</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.9224863736496779</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2593310775872846</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>4.201570819132279</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.04683379231730313</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.07510271153894042</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.21641200720204384</v>
       </c>
     </row>
     <row r="24">
@@ -4556,458 +4577,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.735949556987301</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7574355879961638</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.7697586827644919</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.6719984306097659</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.4864864864864864</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.238763308519644</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.4886508243940151</v>
+        <v>0.47603723554067</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5091342260476011</v>
+        <v>0.5432735364284704</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5029448710117649</v>
+        <v>0.5432428687623418</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.3697543855715835</v>
+        <v>0.45367050588157726</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.4410331628996524</v>
+        <v>0.2767247306920301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5090709233606454</v>
+        <v>0.7446970933717397</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.5429566903649802</v>
+        <v>0.784952960178792</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5386472375344217</v>
+        <v>0.8011138754278063</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4261607127164177</v>
+        <v>0.6793148930096922</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.675675675675676</v>
+        <v>3.4864864864864864</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0555160416185603</v>
+        <v>1.238763308519644</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.48122514794804766</v>
+        <v>0.4961889647816861</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.4995755756176341</v>
+        <v>0.5654187733927694</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.4896452320766695</v>
+        <v>0.5619244070632827</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.3720433819462525</v>
+        <v>0.3725838034592978</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8378378378378377</v>
+        <v>3.918918918918919</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3231593822177095</v>
+        <v>1.4410331628996524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7683261871867894</v>
+        <v>0.7488654429411683</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6944524326733504</v>
+        <v>0.6852578012512988</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.7149980132535563</v>
+        <v>0.7057921095012231</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.6615234446809686</v>
+        <v>0.7258302693907227</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.4324324324324325</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.075525911138622</v>
+        <v>0.483977514182461</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.769070058431479</v>
+        <v>0.7719266508738767</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6946631178011631</v>
+        <v>0.6947993570478981</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7155046662869946</v>
+        <v>0.7112499820253688</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.651598278032562</v>
+        <v>0.6605614115293026</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.5945945945945945</v>
+        <v>1.4324324324324325</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.2417683924807053</v>
+        <v>2.075525911138622</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3239953895619381</v>
+        <v>0.7659670135464912</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3578217493184948</v>
+        <v>0.6937737296322573</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.2712262041721702</v>
+        <v>0.7152867504102275</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.20927264054749367</v>
+        <v>0.640610700882133</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.4594594594594597</v>
+        <v>1.5945945945945945</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2381571116110561</v>
+        <v>2.2417683924807053</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.16127686814591602</v>
+        <v>0.2189826862849083</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.17462590682211449</v>
+        <v>0.32353632852487196</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.07014055566238327</v>
+        <v>0.27196589928094234</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.027809410184824027</v>
+        <v>0.191753675444632</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.4054054054054053</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.3633997428703215</v>
+        <v>0.2767247306920301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6013361246296625</v>
+        <v>0.3645808723574168</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5820130573714696</v>
+        <v>0.4211933186650048</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5426354941135499</v>
+        <v>0.36255427907599586</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.4955592567527898</v>
+        <v>0.24739101963406518</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.4324324324324325</v>
+        <v>2.4594594594594597</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4821257357919053</v>
+        <v>1.2381571116110561</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6025534779804352</v>
+        <v>0.18680936979120663</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6187599512619143</v>
+        <v>0.21541936177093243</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5711386276968214</v>
+        <v>0.15194732931390473</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.508714399034126</v>
+        <v>0.04794333460925671</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.324324324324324</v>
+        <v>2.4054054054054053</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3344589843006718</v>
+        <v>1.3633997428703215</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6154674734771038</v>
+        <v>0.6355980779078292</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6473637679311589</v>
+        <v>0.5999955979563044</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6361286474344159</v>
+        <v>0.5395670005240267</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5122069185217848</v>
+        <v>0.5309996678690375</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1621621621621623</v>
+        <v>1.4324324324324325</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.4816191127260727</v>
+        <v>1.4821257357919053</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6150395174667042</v>
+        <v>0.6221991398965263</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6393230470501035</v>
+        <v>0.6200077682628227</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6179230479705266</v>
+        <v>0.5683631553406356</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5193348134708302</v>
+        <v>0.5270456929914363</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.324324324324324</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3344589843006718</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6172340324882569</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6056952202354258</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5899337213259677</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5091780701903177</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.1621621621621623</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.4816191127260727</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6199114663225676</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6129269744408371</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5908829780285285</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5203457055831074</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.027027027027027</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3841661446213442</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.02702702702702703</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.02702702702702703</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.24324324324324326</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5135135135135135</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.16216216216216217</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5015,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.02702702702702703</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05405405405405406</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.35135135135135137</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.05405405405405406</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4864864864864865</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,25 +5041,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.6486486486486487</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.02702702702702703</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.16216216216216217</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.13513513513513514</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5067,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.6486486486486487</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.05405405405405406</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.05405405405405406</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.24324324324324326</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5093,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.08108108108108109</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.1891891891891892</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.08108108108108109</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.5135135135135135</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.10810810810810811</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.02702702702702703</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5119,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.08108108108108109</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.16216216216216217</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.2972972972972973</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.2972972972972973</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="F50" t="n" s="113">
         <v>0.05405405405405406</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.10810810810810811</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5145,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.40540540540540543</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.21621621621621623</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="D51" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2972972972972973</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.08108108108108109</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,25 +5171,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.16216216216216217</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13513513513513514</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05405405405405406</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="E52" t="n" s="112">
         <v>0.5135135135135135</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.13513513513513514</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5197,25 +5197,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.24324324324324326</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.02702702702702703</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="D53" t="n" s="111">
         <v>0.2972972972972973</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.1891891891891892</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.24324324324324326</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,27 +5223,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
         <v>0.24324324324324326</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C56" t="n" s="110">
         <v>0.02702702702702703</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D56" t="n" s="111">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="D57" t="n" s="111">
         <v>0.35135135135135137</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.21621621621621623</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.16216216216216217</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5352,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5401,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.7409696470265074</v>
+        <v>0.8627150286704894</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.7456937972157383</v>
+        <v>0.9873075560711789</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8717469960876241</v>
+        <v>0.9829886657103842</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.42298821606545456</v>
+        <v>0.9628653277053661</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>2.9322674360732788</v>
+        <v>77.7870331047331</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.07531195454370139</v>
+        <v>0.0054121456280587735</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.72972972972973</v>
+        <v>1.1261261261261262</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9544820773781119</v>
+        <v>1.5818245274056693</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.281844214705119</v>
+        <v>0.958113737808368</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5472,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.6310508713254709</v>
+        <v>0.9771268718117494</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.6588162973396176</v>
+        <v>0.9786088716999077</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.6883071113780818</v>
+        <v>0.958113737808368</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.3916007260102652</v>
+        <v>0.958113737808368</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>1.9309723536103651</v>
+        <v>45.74835221271083</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.11091595758383364</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.11625768332960958</v>
-      </c>
+        <v>0.007261905116872255</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.2697119634159612</v>
+        <v>0.958113737808368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.6919470490899061</v>
+        <v>0.5757267737344989</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7031362871338025</v>
+        <v>0.9898034731284684</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.6999319301558043</v>
+        <v>0.9798127857297053</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.44118980183244155</v>
+        <v>0.9798127857297052</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>2.368549124259995</v>
+        <v>97.07260968359424</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.09131385708307858</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.08487850081995515</v>
-      </c>
+        <v>0.012578983110689888</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.29397646599427685</v>
+        <v>0.9798127857297053</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7063268632389985</v>
+        <v>0.592040958808471</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.707429064199738</v>
+        <v>0.9747109690061757</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7206846048240385</v>
+        <v>0.9506694595780246</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.4462875385945386</v>
+        <v>0.9506694595780247</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>2.417974506813963</v>
+        <v>38.5428357948631</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.08696147345720116</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.10276274148153451</v>
-      </c>
+        <v>0.02028520537423929</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.2697119634159612</v>
+        <v>0.9506694595780247</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.694453924914676</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.6784196455118616</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7273412073449201</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.41287479782457276</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>2.109642694410569</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.08497128814511912</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.128934027035342</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.29397646599427685</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5562,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9806460542738972</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.989148042866</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9846512735003774</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9760618839532219</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.483977514182461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>37.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8014658892276579</v>
+        <v>0.986939989375448</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7844101843401144</v>
+        <v>0.9818237975757192</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7462030889177395</v>
+        <v>0.9635659685140582</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6235576880225377</v>
+        <v>0.9596250663722463</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4864864864864864</v>
+        <v>1.4324324324324325</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.238763308519644</v>
+        <v>2.075525911138622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>37.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.7712517875678289</v>
+        <v>0.9913795864655531</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.735028783139117</v>
+        <v>0.9916607669249443</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.6934601970327249</v>
+        <v>0.9891081093163447</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.526133205047233</v>
+        <v>0.9695787683924127</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.918918918918919</v>
+        <v>1.5945945945945945</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.4410331628996524</v>
+        <v>2.2417683924807053</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>37.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.6894809208116494</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.7299523952433455</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.6717553749872832</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.4953521253850069</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.675675675675676</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0555160416185603</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>37.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.7451439418561439</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.7632252064387648</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7013828722630523</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.5130157454183597</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8378378378378377</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3231593822177095</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.08108108108108109</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C27" t="n" s="225">
         <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.32432432432432434</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4594594594594595</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5820,8 +5799,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5835,66 +5814,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.6149601471489883</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.6169359094228417</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.4460645848779081</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.4460645848779081</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>1.6105292158638813</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.1258706915858939</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.4324324324324325</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.106559747358666</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.4460645848779081</v>
+      <c r="A6" t="n" s="260">
+        <v>0.6007007526602648</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.768422012022192</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.696601652795638</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.5251812005349058</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>3.318199707719327</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.0839132058633149</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>1.927927927927928</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.8017539997672662</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.5312951547685774</v>
       </c>
     </row>
     <row r="7">
@@ -5908,86 +5887,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.6149601471489883</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.6169359094228417</v>
+      </c>
+      <c r="D11" t="n" s="289">
         <v>0.4460645848779081</v>
       </c>
-      <c r="C11" t="n" s="289">
+      <c r="E11" t="n" s="290">
         <v>0.4460645848779081</v>
       </c>
-      <c r="D11" t="n" s="290">
-        <v>0.1989736138823004</v>
-      </c>
-      <c r="E11" t="n" s="291">
+      <c r="F11" t="n" s="291">
+        <v>1.6105292158638813</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.1258706915858939</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
         <v>0.4460645848779081</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.4460645848779081</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.4460645848779081</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.1989736138823004</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.4460645848779081</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.1989736138823004</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.4460645848779081</v>
+      <c r="B12" t="n" s="287">
+        <v>0.3431876606683806</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.6939160659054933</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.5312951547685774</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.5312951547685774</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>2.2670777150010077</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.07291128868232159</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.5312951547685774</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.4059479553903347</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.7485795297986375</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.598183861958232</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.598183861958232</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>2.9774008822714433</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.0689087083836435</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.5981838619582319</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6005,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>37.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8342619801345033</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.850313055550104</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.5679076503975837</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.4460645848779081</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.7241365021074212</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8586129274426414</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.760689326329346</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.6619675456437086</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.2767247306920301</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>37.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.8364384921999621</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.8242476819780883</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.6884044584705518</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.5061777037803873</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.4594594594594597</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.2381571116110561</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>37.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.8575865290745125</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.7972779357435186</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.620895952432099</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.4920987487697537</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>2.4054054054054053</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.3633997428703215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>37.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.8656097356909404</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.850313055550104</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.567907650397584</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.44606458487790823</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.4054054054054053</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.3633997428703215</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.08108108108108109</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.1891891891891892</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.08108108108108109</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.5135135135135135</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.10810810810810811</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.02702702702702703</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.08108108108108109</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.16216216216216217</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.2972972972972973</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.2972972972972973</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.05405405405405406</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.10810810810810811</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6193,8 +6259,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6208,66 +6274,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.877408774087741</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.878547942780832</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.7834021411127835</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.7834021411127834</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>7.233701617712704</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.04006800988939758</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.0945945945945947</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.3531744459163724</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.7834021411127834</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7941176470588236</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.9350761953284693</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.9063715204411057</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.827612668820143</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>14.40267094726356</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.02365735317014822</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.774774774774775</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.9331152326324461</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.8189607409173935</v>
       </c>
     </row>
     <row r="7">
@@ -6281,86 +6347,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.7834021411127834</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.7834021411127834</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.6137189147000937</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.7834021411127834</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7834021411127834</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.7834021411127834</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.893235158766682</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.8988708099937142</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.8163173024126108</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.8163173024126107</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>8.888341832242938</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.03395080365785472</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.8163173024126108</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.6137189147000937</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.7834021411127834</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6137189147000937</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.7834021411127834</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.4654895666131622</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.9004710464551866</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.8189607409173936</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.8189607409173933</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>9.047327580408497</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.039203256497501504</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.8189607409173935</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.5301369863013699</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.9174911559507448</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.8475599631304244</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.8475599631304243</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>11.119912859317626</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.03740685818779203</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.8475599631304244</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6465,219 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>37.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.948132682309329</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.944299248414607</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8357993347128475</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7834021411127834</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.1621621621621623</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.4816191127260727</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.8954951521157317</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.9447864169756286</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.9055840376825752</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.8729952341911386</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.2767247306920301</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>37.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.940333205938271</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.944299248414607</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8357993347128474</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.7834021411127833</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>2.027027027027027</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.3841661446213442</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.9465227596855333</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.9438498089119305</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.9034607983589368</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.842214824902149</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.4864864864864864</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.238763308519644</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>37.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.9569678292066677</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.9337166955099148</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.8779352307197434</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.8360435923805778</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.918918918918919</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.4410331628996524</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="E24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="G24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="E26" t="n" s="456">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="F26" t="n" s="457">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G26" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="455">
         <v>0.24324324324324326</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="E23" t="n" s="457">
+      <c r="E27" t="n" s="456">
         <v>0.1891891891891892</v>
       </c>
-      <c r="F23" t="n" s="458">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F27" t="n" s="457">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="G27" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6557,8 +6707,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="460">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6572,66 +6722,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9771268718117494</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9786088716999077</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.958113737808368</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.958113737808368</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>45.74835221271083</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.007261905116872255</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.5135135135135136</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>2.135957001512978</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.958113737808368</v>
+      <c r="A6" t="n" s="489">
+        <v>0.6415384615384614</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.6439362891928604</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.4748569584607383</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.4748569584607383</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>1.8084861491028104</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.11702915531286764</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>1.8783783783783783</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.2099437854561526</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.4748569584607384</v>
       </c>
     </row>
     <row r="7">
@@ -6645,81 +6795,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.958113737808368</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.958113737808368</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9179819345771221</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.958113737808368</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.958113737808368</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.958113737808368</v>
+      <c r="A11" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.4748569584607384</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.4748569584607384</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.22548913099858336</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.4748569584607384</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.4748569584607384</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.4748569584607384</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9179819345771221</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.958113737808368</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9179819345771221</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.958113737808368</v>
+      <c r="A12" t="s" s="511">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.22548913099858336</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.4748569584607384</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.22548913099858336</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.4748569584607384</v>
       </c>
     </row>
     <row r="13">
@@ -6733,84 +6883,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="527">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="541">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>37.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9886423279980305</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9894730258598179</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9685286966284194</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.958113737808368</v>
-      </c>
-      <c r="G17" t="n" s="548">
+      <c r="C17" t="n" s="543">
+        <v>0.8743393270414891</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.8587365598542833</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.5917542097270292</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.47485695846073833</v>
+      </c>
+      <c r="G17" t="n" s="547">
         <v>1.4324324324324325</v>
       </c>
-      <c r="H17" t="n" s="549">
-        <v>2.075525911138622</v>
+      <c r="H17" t="n" s="548">
+        <v>1.4821257357919053</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="537">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>37.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9902723411855502</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9894730258598179</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9685286966284194</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9581137378083677</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.5945945945945945</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.2417683924807053</v>
+      <c r="C18" t="n" s="543">
+        <v>0.8422939676022927</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.8587365598542833</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.5917542097270292</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.47485695846073844</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>2.324324324324324</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.3344589843006718</v>
       </c>
     </row>
     <row r="19">
@@ -6824,74 +6974,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="552">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="566">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="E22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="F22" t="s" s="566">
         <v>42</v>
       </c>
-      <c r="G22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="566">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.6486486486486487</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="G23" t="n" s="572">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="562">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="567">
         <v>0.16216216216216217</v>
       </c>
-      <c r="F23" t="n" s="572">
+      <c r="C24" t="n" s="568">
         <v>0.13513513513513514</v>
       </c>
-      <c r="G23" t="n" s="573">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.6486486486486487</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
+      <c r="D24" t="n" s="569">
         <v>0.05405405405405406</v>
       </c>
-      <c r="E24" t="n" s="571">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="G24" t="n" s="573">
+      <c r="E24" t="n" s="570">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="F24" t="n" s="571">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6921,8 +7071,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="575">
-        <v>48</v>
+      <c r="A1" t="s" s="574">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6936,66 +7086,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="589">
+      <c r="A4" t="s" s="588">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="603">
+      <c r="A5" t="s" s="602">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="603">
+      <c r="B5" t="s" s="602">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="603">
+      <c r="C5" t="s" s="602">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="603">
+      <c r="D5" t="s" s="602">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="603">
+      <c r="E5" t="s" s="602">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="603">
+      <c r="F5" t="s" s="602">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="603">
+      <c r="G5" t="s" s="602">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="603">
+      <c r="H5" t="s" s="602">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="603">
+      <c r="I5" t="s" s="602">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="604">
-        <v>0.6415384615384614</v>
-      </c>
-      <c r="B6" t="n" s="605">
-        <v>0.6439362891928604</v>
-      </c>
-      <c r="C6" t="n" s="606">
-        <v>0.4748569584607383</v>
-      </c>
-      <c r="D6" t="n" s="607">
-        <v>0.4748569584607383</v>
-      </c>
-      <c r="E6" t="n" s="608">
-        <v>1.8084861491028104</v>
-      </c>
-      <c r="F6" t="n" s="609">
-        <v>0.11702915531286764</v>
-      </c>
-      <c r="G6" t="n" s="610">
-        <v>1.8783783783783783</v>
-      </c>
-      <c r="H6" t="n" s="611">
-        <v>1.2099437854561526</v>
-      </c>
-      <c r="I6" t="n" s="612">
-        <v>0.4748569584607384</v>
+      <c r="A6" t="n" s="603">
+        <v>0.877408774087741</v>
+      </c>
+      <c r="B6" t="n" s="604">
+        <v>0.878547942780832</v>
+      </c>
+      <c r="C6" t="n" s="605">
+        <v>0.7834021411127835</v>
+      </c>
+      <c r="D6" t="n" s="606">
+        <v>0.7834021411127834</v>
+      </c>
+      <c r="E6" t="n" s="607">
+        <v>7.233701617712704</v>
+      </c>
+      <c r="F6" t="n" s="608">
+        <v>0.04006800988939758</v>
+      </c>
+      <c r="G6" t="n" s="609">
+        <v>2.0945945945945947</v>
+      </c>
+      <c r="H6" t="n" s="610">
+        <v>1.3531744459163724</v>
+      </c>
+      <c r="I6" t="n" s="611">
+        <v>0.7834021411127834</v>
       </c>
     </row>
     <row r="7">
@@ -7009,81 +7159,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="616">
+      <c r="A9" t="s" s="615">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="630">
+      <c r="B10" t="s" s="629">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="630">
+      <c r="C10" t="s" s="629">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="630">
+      <c r="D10" t="s" s="629">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="630">
+      <c r="E10" t="s" s="629">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="630">
+      <c r="F10" t="s" s="629">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="630">
+      <c r="G10" t="s" s="629">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="630">
+      <c r="H10" t="s" s="629">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="630">
+      <c r="I10" t="s" s="629">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="626">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="631">
-        <v>0.4748569584607384</v>
-      </c>
-      <c r="C11" t="n" s="632">
-        <v>0.4748569584607384</v>
-      </c>
-      <c r="D11" t="n" s="633">
-        <v>0.22548913099858336</v>
-      </c>
-      <c r="E11" t="n" s="634">
-        <v>0.4748569584607384</v>
-      </c>
-      <c r="F11" s="635"/>
-      <c r="G11" s="636"/>
-      <c r="H11" t="n" s="637">
-        <v>0.4748569584607384</v>
-      </c>
-      <c r="I11" t="n" s="638">
-        <v>0.4748569584607384</v>
+      <c r="A11" t="s" s="625">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n" s="630">
+        <v>0.7834021411127834</v>
+      </c>
+      <c r="C11" t="n" s="631">
+        <v>0.7834021411127834</v>
+      </c>
+      <c r="D11" t="n" s="632">
+        <v>0.6137189147000937</v>
+      </c>
+      <c r="E11" t="n" s="633">
+        <v>0.7834021411127834</v>
+      </c>
+      <c r="F11" s="634"/>
+      <c r="G11" s="635"/>
+      <c r="H11" t="n" s="636">
+        <v>0.7834021411127834</v>
+      </c>
+      <c r="I11" t="n" s="637">
+        <v>0.7834021411127834</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="626">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="631">
-        <v>0.22548913099858336</v>
-      </c>
-      <c r="C12" t="n" s="632">
-        <v>0.4748569584607384</v>
-      </c>
-      <c r="D12" s="633"/>
-      <c r="E12" s="634"/>
-      <c r="F12" s="635"/>
-      <c r="G12" s="636"/>
-      <c r="H12" t="n" s="637">
-        <v>0.22548913099858336</v>
-      </c>
-      <c r="I12" t="n" s="638">
-        <v>0.4748569584607384</v>
+      <c r="A12" t="s" s="625">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="630">
+        <v>0.6137189147000937</v>
+      </c>
+      <c r="C12" t="n" s="631">
+        <v>0.7834021411127834</v>
+      </c>
+      <c r="D12" s="632"/>
+      <c r="E12" s="633"/>
+      <c r="F12" s="634"/>
+      <c r="G12" s="635"/>
+      <c r="H12" t="n" s="636">
+        <v>0.6137189147000937</v>
+      </c>
+      <c r="I12" t="n" s="637">
+        <v>0.7834021411127834</v>
       </c>
     </row>
     <row r="13">
@@ -7097,84 +7247,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="642">
-        <v>30</v>
+      <c r="A15" t="s" s="641">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="656">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="656">
+      <c r="B16" t="s" s="655">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="656">
+      <c r="C16" t="s" s="655">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="656">
+      <c r="D16" t="s" s="655">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="656">
+      <c r="E16" t="s" s="655">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="656">
+      <c r="F16" t="s" s="655">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="655">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="656">
+      <c r="H16" t="s" s="655">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="652">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="657">
+      <c r="A17" t="s" s="651">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n" s="656">
         <v>37.0</v>
       </c>
-      <c r="C17" t="n" s="658">
-        <v>0.8743393270414891</v>
-      </c>
-      <c r="D17" t="n" s="659">
-        <v>0.8587365598542833</v>
-      </c>
-      <c r="E17" t="n" s="660">
-        <v>0.5917542097270292</v>
-      </c>
-      <c r="F17" t="n" s="661">
-        <v>0.47485695846073833</v>
-      </c>
-      <c r="G17" t="n" s="662">
-        <v>1.4324324324324325</v>
-      </c>
-      <c r="H17" t="n" s="663">
-        <v>1.4821257357919053</v>
+      <c r="C17" t="n" s="657">
+        <v>0.948132682309329</v>
+      </c>
+      <c r="D17" t="n" s="658">
+        <v>0.944299248414607</v>
+      </c>
+      <c r="E17" t="n" s="659">
+        <v>0.8357993347128475</v>
+      </c>
+      <c r="F17" t="n" s="660">
+        <v>0.7834021411127834</v>
+      </c>
+      <c r="G17" t="n" s="661">
+        <v>2.1621621621621623</v>
+      </c>
+      <c r="H17" t="n" s="662">
+        <v>1.4816191127260727</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="652">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="657">
+      <c r="A18" t="s" s="651">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n" s="656">
         <v>37.0</v>
       </c>
-      <c r="C18" t="n" s="658">
-        <v>0.8422939676022927</v>
-      </c>
-      <c r="D18" t="n" s="659">
-        <v>0.8587365598542833</v>
-      </c>
-      <c r="E18" t="n" s="660">
-        <v>0.5917542097270292</v>
-      </c>
-      <c r="F18" t="n" s="661">
-        <v>0.47485695846073844</v>
-      </c>
-      <c r="G18" t="n" s="662">
-        <v>2.324324324324324</v>
-      </c>
-      <c r="H18" t="n" s="663">
-        <v>1.3344589843006718</v>
+      <c r="C18" t="n" s="657">
+        <v>0.940333205938271</v>
+      </c>
+      <c r="D18" t="n" s="658">
+        <v>0.944299248414607</v>
+      </c>
+      <c r="E18" t="n" s="659">
+        <v>0.8357993347128474</v>
+      </c>
+      <c r="F18" t="n" s="660">
+        <v>0.7834021411127833</v>
+      </c>
+      <c r="G18" t="n" s="661">
+        <v>2.027027027027027</v>
+      </c>
+      <c r="H18" t="n" s="662">
+        <v>1.3841661446213442</v>
       </c>
     </row>
     <row r="19">
@@ -7188,74 +7338,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="667">
-        <v>36</v>
+      <c r="A21" t="s" s="666">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="681">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="681">
+      <c r="B22" t="s" s="680">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="681">
+      <c r="C22" t="s" s="680">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="681">
+      <c r="D22" t="s" s="680">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="681">
+      <c r="E22" t="s" s="680">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="681">
-        <v>43</v>
+      <c r="F22" t="s" s="680">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="680">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="677">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="682">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="C23" t="n" s="683">
+      <c r="A23" t="s" s="676">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n" s="681">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="C23" t="n" s="682">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="D23" t="n" s="683">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="E23" t="n" s="684">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="F23" t="n" s="685">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="G23" t="n" s="686">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="676">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n" s="681">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="C24" t="n" s="682">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="D24" t="n" s="683">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="E24" t="n" s="684">
         <v>0.21621621621621623</v>
       </c>
-      <c r="D23" t="n" s="684">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="685">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="F23" t="n" s="686">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G23" t="n" s="687">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="677">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="682">
+      <c r="F24" t="n" s="685">
         <v>0.16216216216216217</v>
       </c>
-      <c r="C24" t="n" s="683">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="D24" t="n" s="684">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="E24" t="n" s="685">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="F24" t="n" s="686">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="G24" t="n" s="687">
+      <c r="G24" t="n" s="686">
         <v>0.0</v>
       </c>
     </row>
@@ -7285,8 +7435,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="689">
-        <v>49</v>
+      <c r="A1" t="s" s="688">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7300,66 +7450,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="703">
+      <c r="A4" t="s" s="702">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="717">
+      <c r="A5" t="s" s="716">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="717">
+      <c r="B5" t="s" s="716">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="717">
+      <c r="C5" t="s" s="716">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="717">
+      <c r="D5" t="s" s="716">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="717">
+      <c r="E5" t="s" s="716">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="717">
+      <c r="F5" t="s" s="716">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="717">
+      <c r="G5" t="s" s="716">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="717">
+      <c r="H5" t="s" s="716">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="717">
+      <c r="I5" t="s" s="716">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="718">
-        <v>0.8346404717857856</v>
-      </c>
-      <c r="B6" t="n" s="719">
-        <v>0.8392546007669793</v>
-      </c>
-      <c r="C6" t="n" s="720">
-        <v>0.9417679225960016</v>
-      </c>
-      <c r="D6" t="n" s="721">
-        <v>0.3430137136619943</v>
-      </c>
-      <c r="E6" t="n" s="722">
-        <v>5.221017862852634</v>
-      </c>
-      <c r="F6" t="n" s="723">
-        <v>0.039469641100117976</v>
-      </c>
-      <c r="G6" t="n" s="724">
-        <v>2.5891891891891894</v>
-      </c>
-      <c r="H6" t="n" s="725">
-        <v>0.9800180791370308</v>
-      </c>
-      <c r="I6" t="n" s="726">
-        <v>0.31875899196470037</v>
+      <c r="A6" t="n" s="717">
+        <v>0.8357450864163093</v>
+      </c>
+      <c r="B6" t="n" s="718">
+        <v>0.8709609093644397</v>
+      </c>
+      <c r="C6" t="n" s="719">
+        <v>0.94886636639589</v>
+      </c>
+      <c r="D6" t="n" s="720">
+        <v>0.40297044795286296</v>
+      </c>
+      <c r="E6" t="n" s="721">
+        <v>6.749589640431189</v>
+      </c>
+      <c r="F6" t="n" s="722">
+        <v>0.03714333873915438</v>
+      </c>
+      <c r="G6" t="n" s="723">
+        <v>1.9648648648648648</v>
+      </c>
+      <c r="H6" t="n" s="724">
+        <v>0.9280254475127453</v>
+      </c>
+      <c r="I6" t="n" s="725">
+        <v>0.3423057338827918</v>
       </c>
     </row>
     <row r="7">
@@ -7373,325 +7523,325 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="730">
+      <c r="A9" t="s" s="729">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="744">
+      <c r="B10" t="s" s="743">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="744">
+      <c r="C10" t="s" s="743">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="744">
+      <c r="D10" t="s" s="743">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="744">
+      <c r="E10" t="s" s="743">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="744">
+      <c r="F10" t="s" s="743">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="744">
+      <c r="G10" t="s" s="743">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="744">
+      <c r="H10" t="s" s="743">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="744">
+      <c r="I10" t="s" s="743">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="740">
+      <c r="A11" t="s" s="739">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n" s="744">
+        <v>0.8264595405726797</v>
+      </c>
+      <c r="C11" t="n" s="745">
+        <v>0.8558036597361196</v>
+      </c>
+      <c r="D11" t="n" s="746">
+        <v>0.9356199686651144</v>
+      </c>
+      <c r="E11" t="n" s="747">
+        <v>0.39738823106641047</v>
+      </c>
+      <c r="F11" t="n" s="748">
+        <v>5.934988767190572</v>
+      </c>
+      <c r="G11" t="n" s="749">
+        <v>0.040943405403232984</v>
+      </c>
+      <c r="H11" t="n" s="750">
+        <v>0.04633318070908402</v>
+      </c>
+      <c r="I11" t="n" s="751">
+        <v>0.3553943550290565</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="739">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n" s="744">
+        <v>0.8056142875015639</v>
+      </c>
+      <c r="C12" t="n" s="745">
+        <v>0.8535356567054025</v>
+      </c>
+      <c r="D12" t="n" s="746">
+        <v>0.936146146211635</v>
+      </c>
+      <c r="E12" t="n" s="747">
+        <v>0.39302383433978844</v>
+      </c>
+      <c r="F12" t="n" s="748">
+        <v>5.8276003394806235</v>
+      </c>
+      <c r="G12" t="n" s="749">
+        <v>0.04474844135696641</v>
+      </c>
+      <c r="H12" t="n" s="750">
+        <v>0.04814960069697223</v>
+      </c>
+      <c r="I12" t="n" s="751">
+        <v>0.34896877078464483</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="739">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n" s="744">
+        <v>0.8102733731466227</v>
+      </c>
+      <c r="C13" t="n" s="745">
+        <v>0.8533599647029365</v>
+      </c>
+      <c r="D13" t="n" s="746">
+        <v>0.934028692204655</v>
+      </c>
+      <c r="E13" t="n" s="747">
+        <v>0.3926887856247462</v>
+      </c>
+      <c r="F13" t="n" s="748">
+        <v>5.819420071566398</v>
+      </c>
+      <c r="G13" t="n" s="749">
+        <v>0.04364803480370422</v>
+      </c>
+      <c r="H13" t="n" s="750">
+        <v>0.04698393781848843</v>
+      </c>
+      <c r="I13" t="n" s="751">
+        <v>0.3472149824261993</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="739">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="745">
-        <v>0.8068609022556391</v>
-      </c>
-      <c r="C11" t="n" s="746">
-        <v>0.8062394076492541</v>
-      </c>
-      <c r="D11" t="n" s="747">
-        <v>0.9109478795849592</v>
-      </c>
-      <c r="E11" t="n" s="748">
-        <v>0.31616181038233343</v>
-      </c>
-      <c r="F11" t="n" s="749">
-        <v>4.161008169245261</v>
-      </c>
-      <c r="G11" t="n" s="750">
-        <v>0.045446658620730156</v>
-      </c>
-      <c r="H11" t="n" s="751">
-        <v>0.04084858080761602</v>
-      </c>
-      <c r="I11" t="n" s="752">
-        <v>0.307798219990152</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="740">
+      <c r="B14" t="n" s="744">
+        <v>0.8380159930840717</v>
+      </c>
+      <c r="C14" t="n" s="745">
+        <v>0.8615280289922648</v>
+      </c>
+      <c r="D14" t="n" s="746">
+        <v>0.9410696640039036</v>
+      </c>
+      <c r="E14" t="n" s="747">
+        <v>0.40873798913840215</v>
+      </c>
+      <c r="F14" t="n" s="748">
+        <v>6.221678096458515</v>
+      </c>
+      <c r="G14" t="n" s="749">
+        <v>0.038417180615873986</v>
+      </c>
+      <c r="H14" t="n" s="750">
+        <v>0.05286556453875054</v>
+      </c>
+      <c r="I14" t="n" s="751">
+        <v>0.34896877078464483</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="739">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="745">
-        <v>0.8305076731870745</v>
-      </c>
-      <c r="C12" t="n" s="746">
-        <v>0.8342599267120814</v>
-      </c>
-      <c r="D12" t="n" s="747">
-        <v>0.923714624350732</v>
-      </c>
-      <c r="E12" t="n" s="748">
-        <v>0.35867945433080944</v>
-      </c>
-      <c r="F12" t="n" s="749">
-        <v>5.033543850694639</v>
-      </c>
-      <c r="G12" t="n" s="750">
-        <v>0.040244600468439605</v>
-      </c>
-      <c r="H12" t="n" s="751">
-        <v>0.040312773093163334</v>
-      </c>
-      <c r="I12" t="n" s="752">
-        <v>0.33930033402102266</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="740">
+      <c r="B15" t="n" s="744">
+        <v>0.8054984500796487</v>
+      </c>
+      <c r="C15" t="n" s="745">
+        <v>0.8425495268332654</v>
+      </c>
+      <c r="D15" t="n" s="746">
+        <v>0.9296722973109868</v>
+      </c>
+      <c r="E15" t="n" s="747">
+        <v>0.3728748961662636</v>
+      </c>
+      <c r="F15" t="n" s="748">
+        <v>5.351203523796558</v>
+      </c>
+      <c r="G15" t="n" s="749">
+        <v>0.04276777339491033</v>
+      </c>
+      <c r="H15" t="n" s="750">
+        <v>0.055681034196468755</v>
+      </c>
+      <c r="I15" t="n" s="751">
+        <v>0.3119013856195497</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="739">
         <v>20</v>
       </c>
-      <c r="B13" t="n" s="745">
-        <v>0.8269823327106719</v>
-      </c>
-      <c r="C13" t="n" s="746">
-        <v>0.8308944100683772</v>
-      </c>
-      <c r="D13" t="n" s="747">
-        <v>0.9105327095204987</v>
-      </c>
-      <c r="E13" t="n" s="748">
-        <v>0.35314460117094065</v>
-      </c>
-      <c r="F13" t="n" s="749">
-        <v>4.913465074716609</v>
-      </c>
-      <c r="G13" t="n" s="750">
-        <v>0.04169513899033481</v>
-      </c>
-      <c r="H13" t="n" s="751">
-        <v>0.04113783198785001</v>
-      </c>
-      <c r="I13" t="n" s="752">
-        <v>0.3339313437346517</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="740">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="745">
-        <v>0.8309045070272761</v>
-      </c>
-      <c r="C14" t="n" s="746">
-        <v>0.83655726883668</v>
-      </c>
-      <c r="D14" t="n" s="747">
-        <v>0.917432922711905</v>
-      </c>
-      <c r="E14" t="n" s="748">
-        <v>0.3625317864064194</v>
-      </c>
-      <c r="F14" t="n" s="749">
-        <v>5.118351014342453</v>
-      </c>
-      <c r="G14" t="n" s="750">
-        <v>0.040752958695544454</v>
-      </c>
-      <c r="H14" t="n" s="751">
-        <v>0.038129663516068904</v>
-      </c>
-      <c r="I14" t="n" s="752">
-        <v>0.33056608475877935</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="740">
+      <c r="B16" t="n" s="744">
+        <v>0.8317879920380225</v>
+      </c>
+      <c r="C16" t="n" s="745">
+        <v>0.8652287235848003</v>
+      </c>
+      <c r="D16" t="n" s="746">
+        <v>0.9416166672105721</v>
+      </c>
+      <c r="E16" t="n" s="747">
+        <v>0.4163416061259797</v>
+      </c>
+      <c r="F16" t="n" s="748">
+        <v>6.419978697235363</v>
+      </c>
+      <c r="G16" t="n" s="749">
+        <v>0.03702051363012853</v>
+      </c>
+      <c r="H16" t="n" s="750">
+        <v>0.05144378423331081</v>
+      </c>
+      <c r="I16" t="n" s="751">
+        <v>0.37009778175241376</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="739">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="744">
+        <v>0.819252040664095</v>
+      </c>
+      <c r="C17" t="n" s="745">
+        <v>0.8637262828928131</v>
+      </c>
+      <c r="D17" t="n" s="746">
+        <v>0.9519443213910227</v>
+      </c>
+      <c r="E17" t="n" s="747">
+        <v>0.413228649850413</v>
+      </c>
+      <c r="F17" t="n" s="748">
+        <v>6.338172181899489</v>
+      </c>
+      <c r="G17" t="n" s="749">
+        <v>0.041085925683296616</v>
+      </c>
+      <c r="H17" t="n" s="750">
+        <v>0.06690685406981912</v>
+      </c>
+      <c r="I17" t="n" s="751">
+        <v>0.3367884400716754</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="739">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="745">
-        <v>0.8188807206460965</v>
-      </c>
-      <c r="C15" t="n" s="746">
-        <v>0.8204250044716197</v>
-      </c>
-      <c r="D15" t="n" s="747">
-        <v>0.9264017989230733</v>
-      </c>
-      <c r="E15" t="n" s="748">
-        <v>0.33670894546363556</v>
-      </c>
-      <c r="F15" t="n" s="749">
-        <v>4.568704022837959</v>
-      </c>
-      <c r="G15" t="n" s="750">
-        <v>0.04217905677899031</v>
-      </c>
-      <c r="H15" t="n" s="751">
-        <v>0.04076075011838841</v>
-      </c>
-      <c r="I15" t="n" s="752">
-        <v>0.3197172354597366</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="740">
+      <c r="B18" t="n" s="744">
+        <v>0.8244417445866142</v>
+      </c>
+      <c r="C18" t="n" s="745">
+        <v>0.8679502531083497</v>
+      </c>
+      <c r="D18" t="n" s="746">
+        <v>0.951498479137349</v>
+      </c>
+      <c r="E18" t="n" s="747">
+        <v>0.42207309266200205</v>
+      </c>
+      <c r="F18" t="n" s="748">
+        <v>6.572903572624956</v>
+      </c>
+      <c r="G18" t="n" s="749">
+        <v>0.03967980647526201</v>
+      </c>
+      <c r="H18" t="n" s="750">
+        <v>0.06349763926018268</v>
+      </c>
+      <c r="I18" t="n" s="751">
+        <v>0.36205739193090947</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="739">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="745">
-        <v>0.8178327645051193</v>
-      </c>
-      <c r="C16" t="n" s="746">
-        <v>0.8204766781511759</v>
-      </c>
-      <c r="D16" t="n" s="747">
-        <v>0.9323972883306648</v>
-      </c>
-      <c r="E16" t="n" s="748">
-        <v>0.33678729151592246</v>
-      </c>
-      <c r="F16" t="n" s="749">
-        <v>4.570306908882269</v>
-      </c>
-      <c r="G16" t="n" s="750">
-        <v>0.04289396004799476</v>
-      </c>
-      <c r="H16" t="n" s="751">
-        <v>0.042029558555469526</v>
-      </c>
-      <c r="I16" t="n" s="752">
-        <v>0.33056608475877935</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="740">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="745">
-        <v>0.804459391583499</v>
-      </c>
-      <c r="C17" t="n" s="746">
-        <v>0.8170140546420458</v>
-      </c>
-      <c r="D17" t="n" s="747">
-        <v>0.9109213670472538</v>
-      </c>
-      <c r="E17" t="n" s="748">
-        <v>0.3315955106703318</v>
-      </c>
-      <c r="F17" t="n" s="749">
-        <v>4.464900585910113</v>
-      </c>
-      <c r="G17" t="n" s="750">
-        <v>0.04798483673143944</v>
-      </c>
-      <c r="H17" t="n" s="751">
-        <v>0.03967140137750741</v>
-      </c>
-      <c r="I17" t="n" s="752">
-        <v>0.3144731062454682</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="740">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="745">
-        <v>0.8064928482937268</v>
-      </c>
-      <c r="C18" t="n" s="746">
-        <v>0.8161622503355526</v>
-      </c>
-      <c r="D18" t="n" s="747">
-        <v>0.9102926086136756</v>
-      </c>
-      <c r="E18" t="n" s="748">
-        <v>0.33033617620510847</v>
-      </c>
-      <c r="F18" t="n" s="749">
-        <v>4.4395792040822135</v>
-      </c>
-      <c r="G18" t="n" s="750">
-        <v>0.047684767834345165</v>
-      </c>
-      <c r="H18" t="n" s="751">
-        <v>0.039343637290929684</v>
-      </c>
-      <c r="I18" t="n" s="752">
-        <v>0.3144731062454682</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="740">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="745">
-        <v>0.8220557273811299</v>
-      </c>
-      <c r="C19" t="n" s="746">
-        <v>0.8301152611542806</v>
-      </c>
-      <c r="D19" t="n" s="747">
-        <v>0.933582746269082</v>
-      </c>
-      <c r="E19" t="n" s="748">
-        <v>0.35188124027867546</v>
-      </c>
-      <c r="F19" t="n" s="749">
-        <v>4.886343922323408</v>
-      </c>
-      <c r="G19" t="n" s="750">
-        <v>0.04309451945050491</v>
-      </c>
-      <c r="H19" t="n" s="751">
-        <v>0.04570711671209979</v>
-      </c>
-      <c r="I19" t="n" s="752">
-        <v>0.31866763191978315</v>
+      <c r="B19" t="n" s="744">
+        <v>0.8195860652247957</v>
+      </c>
+      <c r="C19" t="n" s="745">
+        <v>0.8609451378256892</v>
+      </c>
+      <c r="D19" t="n" s="746">
+        <v>0.9388752461613302</v>
+      </c>
+      <c r="E19" t="n" s="747">
+        <v>0.4075597826226318</v>
+      </c>
+      <c r="F19" t="n" s="748">
+        <v>6.1914062145231545</v>
+      </c>
+      <c r="G19" t="n" s="749">
+        <v>0.039138522058408794</v>
+      </c>
+      <c r="H19" t="n" s="750">
+        <v>0.05978730387874014</v>
+      </c>
+      <c r="I19" t="n" s="751">
+        <v>0.3405519455243462</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="740">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="745">
-        <v>0.8245240253853128</v>
-      </c>
-      <c r="C20" t="n" s="746">
-        <v>0.8303803489052501</v>
-      </c>
-      <c r="D20" t="n" s="747">
-        <v>0.941411397419468</v>
-      </c>
-      <c r="E20" t="n" s="748">
-        <v>0.3523103201957663</v>
-      </c>
-      <c r="F20" t="n" s="749">
-        <v>4.895543314385184</v>
-      </c>
-      <c r="G20" t="n" s="750">
-        <v>0.042237088488234466</v>
-      </c>
-      <c r="H20" t="n" s="751">
-        <v>0.04634550659667089</v>
-      </c>
-      <c r="I20" t="n" s="752">
-        <v>0.3144731062454682</v>
+      <c r="A20" t="s" s="739">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="744">
+        <v>0.8179682556422696</v>
+      </c>
+      <c r="C20" t="n" s="745">
+        <v>0.8600635228879121</v>
+      </c>
+      <c r="D20" t="n" s="746">
+        <v>0.9406659562765861</v>
+      </c>
+      <c r="E20" t="n" s="747">
+        <v>0.40578761193199203</v>
+      </c>
+      <c r="F20" t="n" s="748">
+        <v>6.146099577732036</v>
+      </c>
+      <c r="G20" t="n" s="749">
+        <v>0.04005183566758321</v>
+      </c>
+      <c r="H20" t="n" s="750">
+        <v>0.06167704821716935</v>
+      </c>
+      <c r="I20" t="n" s="751">
+        <v>0.34896877078464483</v>
       </c>
     </row>
     <row r="21">
@@ -7705,292 +7855,292 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="756">
-        <v>30</v>
+      <c r="A23" t="s" s="755">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
-      <c r="B24" t="s" s="770">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="770">
+      <c r="B24" t="s" s="769">
         <v>32</v>
       </c>
-      <c r="D24" t="s" s="770">
+      <c r="C24" t="s" s="769">
         <v>33</v>
       </c>
-      <c r="E24" t="s" s="770">
+      <c r="D24" t="s" s="769">
         <v>34</v>
       </c>
-      <c r="F24" t="s" s="770">
+      <c r="E24" t="s" s="769">
         <v>35</v>
       </c>
-      <c r="G24" t="s" s="770">
+      <c r="F24" t="s" s="769">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="769">
         <v>9</v>
       </c>
-      <c r="H24" t="s" s="770">
+      <c r="H24" t="s" s="769">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="766">
+      <c r="A25" t="s" s="765">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C25" t="n" s="771">
+        <v>0.7580327979469512</v>
+      </c>
+      <c r="D25" t="n" s="772">
+        <v>0.7097451819545282</v>
+      </c>
+      <c r="E25" t="n" s="773">
+        <v>0.7237414560708849</v>
+      </c>
+      <c r="F25" t="n" s="774">
+        <v>0.7344748146596863</v>
+      </c>
+      <c r="G25" t="n" s="775">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="H25" t="n" s="776">
+        <v>0.483977514182461</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="765">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C26" t="n" s="771">
+        <v>0.7897507398238304</v>
+      </c>
+      <c r="D26" t="n" s="772">
+        <v>0.732843983880774</v>
+      </c>
+      <c r="E26" t="n" s="773">
+        <v>0.7434111672357185</v>
+      </c>
+      <c r="F26" t="n" s="774">
+        <v>0.6781895003544508</v>
+      </c>
+      <c r="G26" t="n" s="775">
+        <v>1.4324324324324325</v>
+      </c>
+      <c r="H26" t="n" s="776">
+        <v>2.075525911138622</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="765">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C27" t="n" s="771">
+        <v>0.7887433317229051</v>
+      </c>
+      <c r="D27" t="n" s="772">
+        <v>0.7346172470346929</v>
+      </c>
+      <c r="E27" t="n" s="773">
+        <v>0.7501740957400725</v>
+      </c>
+      <c r="F27" t="n" s="774">
+        <v>0.6648795120867088</v>
+      </c>
+      <c r="G27" t="n" s="775">
+        <v>1.5945945945945945</v>
+      </c>
+      <c r="H27" t="n" s="776">
+        <v>2.2417683924807053</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="765">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="771">
+      <c r="B28" t="n" s="770">
         <v>37.0</v>
       </c>
-      <c r="C25" t="n" s="772">
-        <v>0.7618137544858418</v>
-      </c>
-      <c r="D25" t="n" s="773">
-        <v>0.7905120277429475</v>
-      </c>
-      <c r="E25" t="n" s="774">
-        <v>0.7933406896945033</v>
-      </c>
-      <c r="F25" t="n" s="775">
-        <v>0.7002497678856971</v>
-      </c>
-      <c r="G25" t="n" s="776">
+      <c r="C28" t="n" s="771">
+        <v>0.5510604861533944</v>
+      </c>
+      <c r="D28" t="n" s="772">
+        <v>0.649675983383147</v>
+      </c>
+      <c r="E28" t="n" s="773">
+        <v>0.6384485512762731</v>
+      </c>
+      <c r="F28" t="n" s="774">
+        <v>0.5297803997428039</v>
+      </c>
+      <c r="G28" t="n" s="775">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="H28" t="n" s="776">
+        <v>0.2767247306920301</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="765">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="770">
+        <v>37.0</v>
+      </c>
+      <c r="C29" t="n" s="771">
+        <v>0.7788294435923511</v>
+      </c>
+      <c r="D29" t="n" s="772">
+        <v>0.8394833113863295</v>
+      </c>
+      <c r="E29" t="n" s="773">
+        <v>0.8474071024031962</v>
+      </c>
+      <c r="F29" t="n" s="774">
+        <v>0.7170969051750044</v>
+      </c>
+      <c r="G29" t="n" s="775">
         <v>3.4864864864864864</v>
       </c>
-      <c r="H25" t="n" s="777">
+      <c r="H29" t="n" s="776">
         <v>1.238763308519644</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="766">
-        <v>19</v>
-      </c>
-      <c r="B26" t="n" s="771">
+    <row r="30">
+      <c r="A30" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="770">
         <v>37.0</v>
       </c>
-      <c r="C26" t="n" s="772">
-        <v>0.5225660967814191</v>
-      </c>
-      <c r="D26" t="n" s="773">
-        <v>0.5510907108996854</v>
-      </c>
-      <c r="E26" t="n" s="774">
-        <v>0.5384032666473354</v>
-      </c>
-      <c r="F26" t="n" s="775">
-        <v>0.4030813445654147</v>
-      </c>
-      <c r="G26" t="n" s="776">
+      <c r="C30" t="n" s="771">
+        <v>0.5337100838379409</v>
+      </c>
+      <c r="D30" t="n" s="772">
+        <v>0.6094334358512616</v>
+      </c>
+      <c r="E30" t="n" s="773">
+        <v>0.5968977624358069</v>
+      </c>
+      <c r="F30" t="n" s="774">
+        <v>0.40846107947693855</v>
+      </c>
+      <c r="G30" t="n" s="775">
         <v>3.918918918918919</v>
       </c>
-      <c r="H26" t="n" s="777">
+      <c r="H30" t="n" s="776">
         <v>1.4410331628996524</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="766">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="771">
+    <row r="31">
+      <c r="A31" t="s" s="765">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n" s="770">
         <v>37.0</v>
       </c>
-      <c r="C27" t="n" s="772">
-        <v>0.538954117848289</v>
-      </c>
-      <c r="D27" t="n" s="773">
-        <v>0.5822580501265662</v>
-      </c>
-      <c r="E27" t="n" s="774">
-        <v>0.5696167133717511</v>
-      </c>
-      <c r="F27" t="n" s="775">
-        <v>0.4557171824012282</v>
-      </c>
-      <c r="G27" t="n" s="776">
-        <v>3.675675675675676</v>
-      </c>
-      <c r="H27" t="n" s="777">
-        <v>1.0555160416185603</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="766">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="771">
+      <c r="C31" t="n" s="771">
+        <v>0.6495278883880824</v>
+      </c>
+      <c r="D31" t="n" s="772">
+        <v>0.6259089225951149</v>
+      </c>
+      <c r="E31" t="n" s="773">
+        <v>0.5521070306554835</v>
+      </c>
+      <c r="F31" t="n" s="774">
+        <v>0.5415646103819198</v>
+      </c>
+      <c r="G31" t="n" s="775">
+        <v>1.4324324324324325</v>
+      </c>
+      <c r="H31" t="n" s="776">
+        <v>1.4821257357919053</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="765">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n" s="770">
         <v>37.0</v>
       </c>
-      <c r="C28" t="n" s="772">
-        <v>0.5041594910189138</v>
-      </c>
-      <c r="D28" t="n" s="773">
-        <v>0.529397824539901</v>
-      </c>
-      <c r="E28" t="n" s="774">
-        <v>0.5113997736399473</v>
-      </c>
-      <c r="F28" t="n" s="775">
-        <v>0.39304380059275734</v>
-      </c>
-      <c r="G28" t="n" s="776">
-        <v>3.8378378378378377</v>
-      </c>
-      <c r="H28" t="n" s="777">
-        <v>1.3231593822177095</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="766">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n" s="771">
+      <c r="C32" t="n" s="771">
+        <v>0.5926412175540001</v>
+      </c>
+      <c r="D32" t="n" s="772">
+        <v>0.5790992383593223</v>
+      </c>
+      <c r="E32" t="n" s="773">
+        <v>0.50774986354972</v>
+      </c>
+      <c r="F32" t="n" s="774">
+        <v>0.4867731302092541</v>
+      </c>
+      <c r="G32" t="n" s="775">
+        <v>2.324324324324324</v>
+      </c>
+      <c r="H32" t="n" s="776">
+        <v>1.3344589843006718</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="765">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n" s="770">
         <v>37.0</v>
       </c>
-      <c r="C29" t="n" s="772">
-        <v>0.6363742577397568</v>
-      </c>
-      <c r="D29" t="n" s="773">
-        <v>0.6748089529328</v>
-      </c>
-      <c r="E29" t="n" s="774">
-        <v>0.6543626610254732</v>
-      </c>
-      <c r="F29" t="n" s="775">
-        <v>0.5324261429426009</v>
-      </c>
-      <c r="G29" t="n" s="776">
+      <c r="C33" t="n" s="771">
+        <v>0.6466923401782414</v>
+      </c>
+      <c r="D33" t="n" s="772">
+        <v>0.6559117040659126</v>
+      </c>
+      <c r="E33" t="n" s="773">
+        <v>0.6324462025675918</v>
+      </c>
+      <c r="F33" t="n" s="774">
+        <v>0.5381745488877935</v>
+      </c>
+      <c r="G33" t="n" s="775">
         <v>2.1621621621621623</v>
       </c>
-      <c r="H29" t="n" s="777">
+      <c r="H33" t="n" s="776">
         <v>1.4816191127260727</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="766">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n" s="771">
+    <row r="34">
+      <c r="A34" t="s" s="765">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n" s="770">
         <v>37.0</v>
       </c>
-      <c r="C30" t="n" s="772">
-        <v>0.6432122931903546</v>
-      </c>
-      <c r="D30" t="n" s="773">
-        <v>0.6743677780871111</v>
-      </c>
-      <c r="E30" t="n" s="774">
-        <v>0.6415838616996521</v>
-      </c>
-      <c r="F30" t="n" s="775">
-        <v>0.5482676217792974</v>
-      </c>
-      <c r="G30" t="n" s="776">
+      <c r="C34" t="n" s="771">
+        <v>0.6559871397229491</v>
+      </c>
+      <c r="D34" t="n" s="772">
+        <v>0.665291011751873</v>
+      </c>
+      <c r="E34" t="n" s="773">
+        <v>0.6334392142386363</v>
+      </c>
+      <c r="F34" t="n" s="774">
+        <v>0.5574795729425319</v>
+      </c>
+      <c r="G34" t="n" s="775">
         <v>2.027027027027027</v>
       </c>
-      <c r="H30" t="n" s="777">
+      <c r="H34" t="n" s="776">
         <v>1.3841661446213442</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="766">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C31" t="n" s="772">
-        <v>0.7766783213387187</v>
-      </c>
-      <c r="D31" t="n" s="773">
-        <v>0.7036032410944049</v>
-      </c>
-      <c r="E31" t="n" s="774">
-        <v>0.7151204005360288</v>
-      </c>
-      <c r="F31" t="n" s="775">
-        <v>0.6676486884429164</v>
-      </c>
-      <c r="G31" t="n" s="776">
-        <v>1.4324324324324325</v>
-      </c>
-      <c r="H31" t="n" s="777">
-        <v>2.075525911138622</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="766">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C32" t="n" s="772">
-        <v>0.783120712793999</v>
-      </c>
-      <c r="D32" t="n" s="773">
-        <v>0.7106946856809219</v>
-      </c>
-      <c r="E32" t="n" s="774">
-        <v>0.722661869491256</v>
-      </c>
-      <c r="F32" t="n" s="775">
-        <v>0.665435990402769</v>
-      </c>
-      <c r="G32" t="n" s="776">
-        <v>1.5945945945945945</v>
-      </c>
-      <c r="H32" t="n" s="777">
-        <v>2.2417683924807053</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="766">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C33" t="n" s="772">
-        <v>0.6076258149531211</v>
-      </c>
-      <c r="D33" t="n" s="773">
-        <v>0.5893721679464755</v>
-      </c>
-      <c r="E33" t="n" s="774">
-        <v>0.5390386106866395</v>
-      </c>
-      <c r="F33" t="n" s="775">
-        <v>0.4982354850907186</v>
-      </c>
-      <c r="G33" t="n" s="776">
-        <v>1.4324324324324325</v>
-      </c>
-      <c r="H33" t="n" s="777">
-        <v>1.4821257357919053</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="766">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="771">
-        <v>37.0</v>
-      </c>
-      <c r="C34" t="n" s="772">
-        <v>0.574116310166228</v>
-      </c>
-      <c r="D34" t="n" s="773">
-        <v>0.5869559738858313</v>
-      </c>
-      <c r="E34" t="n" s="774">
-        <v>0.5186012100795915</v>
-      </c>
-      <c r="F34" t="n" s="775">
-        <v>0.4716529078712465</v>
-      </c>
-      <c r="G34" t="n" s="776">
-        <v>2.324324324324324</v>
-      </c>
-      <c r="H34" t="n" s="777">
-        <v>1.3344589843006718</v>
       </c>
     </row>
     <row r="35">
@@ -8004,291 +8154,291 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="781">
-        <v>36</v>
+      <c r="A37" t="s" s="780">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38" t="s" s="795">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="795">
+      <c r="B38" t="s" s="794">
         <v>38</v>
       </c>
-      <c r="D38" t="s" s="795">
+      <c r="C38" t="s" s="794">
         <v>39</v>
       </c>
-      <c r="E38" t="s" s="795">
+      <c r="D38" t="s" s="794">
         <v>40</v>
       </c>
-      <c r="F38" t="s" s="795">
+      <c r="E38" t="s" s="794">
         <v>41</v>
       </c>
-      <c r="G38" t="s" s="795">
+      <c r="F38" t="s" s="794">
         <v>42</v>
       </c>
-      <c r="H38" t="s" s="795">
+      <c r="G38" t="s" s="794">
         <v>43</v>
       </c>
+      <c r="H38" t="s" s="794">
+        <v>44</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="791">
+      <c r="A39" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n" s="795">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="C39" t="n" s="796">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="D39" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="790">
+        <v>22</v>
+      </c>
+      <c r="B40" t="n" s="795">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="C40" t="n" s="796">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="D40" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="798">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="F40" t="n" s="799">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G40" t="n" s="800">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="H40" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="790">
+        <v>23</v>
+      </c>
+      <c r="B41" t="n" s="795">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="C41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="798">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="F41" t="n" s="799">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G41" t="n" s="800">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="H41" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="790">
         <v>18</v>
       </c>
-      <c r="B39" t="n" s="796">
+      <c r="B42" t="n" s="795">
         <v>0.08108108108108109</v>
       </c>
-      <c r="C39" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D39" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="799">
+      <c r="C42" t="n" s="796">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="D42" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="790">
+        <v>19</v>
+      </c>
+      <c r="B43" t="n" s="795">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="C43" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n" s="798">
         <v>0.32432432432432434</v>
       </c>
-      <c r="F39" t="n" s="800">
+      <c r="F43" t="n" s="799">
         <v>0.4594594594594595</v>
       </c>
-      <c r="G39" t="n" s="801">
+      <c r="G43" t="n" s="800">
         <v>0.13513513513513514</v>
       </c>
-      <c r="H39" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="791">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="796">
+      <c r="H43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n" s="795">
         <v>0.08108108108108109</v>
       </c>
-      <c r="C40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n" s="799">
+      <c r="C44" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n" s="798">
         <v>0.24324324324324326</v>
       </c>
-      <c r="F40" t="n" s="800">
+      <c r="F44" t="n" s="799">
         <v>0.1891891891891892</v>
       </c>
-      <c r="G40" t="n" s="801">
+      <c r="G44" t="n" s="800">
         <v>0.4864864864864865</v>
       </c>
-      <c r="H40" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="791">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="796">
+      <c r="H44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="790">
+        <v>27</v>
+      </c>
+      <c r="B45" t="n" s="795">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="C45" t="n" s="796">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="D45" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="798">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="F45" t="n" s="799">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="G45" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="790">
+        <v>28</v>
+      </c>
+      <c r="B46" t="n" s="795">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="C46" t="n" s="796">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D46" t="n" s="797">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="E46" t="n" s="798">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="F46" t="n" s="799">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G46" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="790">
+        <v>29</v>
+      </c>
+      <c r="B47" t="n" s="795">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="C47" t="n" s="796">
         <v>0.02702702702702703</v>
       </c>
-      <c r="C41" t="n" s="797">
+      <c r="D47" t="n" s="797">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="E47" t="n" s="798">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="F47" t="n" s="799">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="G47" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="790">
+        <v>30</v>
+      </c>
+      <c r="B48" t="n" s="795">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="C48" t="n" s="796">
         <v>0.02702702702702703</v>
       </c>
-      <c r="D41" t="n" s="798">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="E41" t="n" s="799">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F41" t="n" s="800">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="G41" t="n" s="801">
+      <c r="D48" t="n" s="797">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="E48" t="n" s="798">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="F48" t="n" s="799">
         <v>0.16216216216216217</v>
       </c>
-      <c r="H41" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="791">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="796">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C42" t="n" s="797">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D42" t="n" s="798">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="E42" t="n" s="799">
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="F42" t="n" s="800">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G42" t="n" s="801">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="H42" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="791">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="796">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="C43" t="n" s="797">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D43" t="n" s="798">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="E43" t="n" s="799">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F43" t="n" s="800">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="G43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="791">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="796">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="C44" t="n" s="797">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D44" t="n" s="798">
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="E44" t="n" s="799">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="F44" t="n" s="800">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="G44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="791">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="796">
-        <v>0.6486486486486487</v>
-      </c>
-      <c r="C45" t="n" s="797">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="H45" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="791">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="796">
-        <v>0.6486486486486487</v>
-      </c>
-      <c r="C46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="H46" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="791">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="796">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="C47" t="n" s="797">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="799">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="F47" t="n" s="800">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="791">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="796">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="C48" t="n" s="797">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="D48" t="n" s="798">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="E48" t="n" s="799">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="F48" t="n" s="800">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="G48" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="802">
+      <c r="G48" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
